--- a/Restoration_Sample_Data.xlsx
+++ b/Restoration_Sample_Data.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SD\PycharmProjects\ASR\templates\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SD\PycharmProjects\ASR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6888945-1FFF-4C67-A442-2E547AFB4222}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CDEF25-29B1-4B5E-BC0A-BB20C9C8DB60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="-105" windowWidth="23250" windowHeight="13170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30615" yWindow="-105" windowWidth="23250" windowHeight="13170" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="generator" sheetId="1" r:id="rId1"/>
-    <sheet name="transformer" sheetId="2" r:id="rId2"/>
+    <sheet name="generator" sheetId="9" r:id="rId1"/>
+    <sheet name="transformer" sheetId="10" r:id="rId2"/>
     <sheet name="line" sheetId="4" r:id="rId3"/>
     <sheet name="bus" sheetId="3" r:id="rId4"/>
     <sheet name="load" sheetId="5" r:id="rId5"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -111,9 +111,6 @@
     <t>pfe_kw</t>
   </si>
   <si>
-    <t>tap_side</t>
-  </si>
-  <si>
     <t>in_service</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>c_nf_per_km</t>
   </si>
   <si>
-    <t>max_i_ka</t>
-  </si>
-  <si>
     <t>q_mvar</t>
   </si>
   <si>
@@ -207,82 +201,6 @@
     <t>L13</t>
   </si>
   <si>
-    <t>B1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>B13</t>
-  </si>
-  <si>
-    <t>B14</t>
-  </si>
-  <si>
-    <t>B15</t>
-  </si>
-  <si>
-    <t>B16</t>
-  </si>
-  <si>
-    <t>B17</t>
-  </si>
-  <si>
-    <t>B18</t>
-  </si>
-  <si>
-    <t>B19</t>
-  </si>
-  <si>
-    <t>B20</t>
-  </si>
-  <si>
-    <t>B21</t>
-  </si>
-  <si>
-    <t>B22</t>
-  </si>
-  <si>
-    <t>B23</t>
-  </si>
-  <si>
-    <t>B24</t>
-  </si>
-  <si>
-    <t>B25</t>
-  </si>
-  <si>
     <t>Line1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,68 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SU1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SU3</t>
-  </si>
-  <si>
-    <t>SU2</t>
-  </si>
-  <si>
-    <t>SU5</t>
-  </si>
-  <si>
-    <t>SU4</t>
-  </si>
-  <si>
-    <t>SD1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SD2</t>
-  </si>
-  <si>
-    <t>SD3</t>
-  </si>
-  <si>
-    <t>SD4</t>
-  </si>
-  <si>
-    <t>SD5</t>
-  </si>
-  <si>
-    <t>SD6</t>
-  </si>
-  <si>
-    <t>SD7</t>
-  </si>
-  <si>
-    <t>SD8</t>
-  </si>
-  <si>
-    <t>SD9</t>
-  </si>
-  <si>
-    <t>SD10</t>
-  </si>
-  <si>
-    <t>SD11</t>
-  </si>
-  <si>
-    <t>SD12</t>
-  </si>
-  <si>
-    <t>SD13</t>
-  </si>
-  <si>
-    <t>SD14</t>
-  </si>
-  <si>
-    <t>SD15</t>
-  </si>
-  <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -441,6 +297,41 @@
   </si>
   <si>
     <t>hv_bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_i_ka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hv</t>
+  </si>
+  <si>
+    <t>in_service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tap_side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,11 +381,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,30 +669,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A3427B-C315-414C-83DF-7E13E3D1B8BC}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -816,9 +701,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -826,6 +711,12 @@
       <c r="C2">
         <v>100</v>
       </c>
+      <c r="D2" s="3">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="E2">
+        <v>261.5</v>
+      </c>
       <c r="F2">
         <v>62</v>
       </c>
@@ -833,9 +724,9 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -843,6 +734,12 @@
       <c r="C3">
         <v>91</v>
       </c>
+      <c r="D3" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="E3">
+        <v>64</v>
+      </c>
       <c r="F3">
         <v>46</v>
       </c>
@@ -850,9 +747,9 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -860,6 +757,12 @@
       <c r="C4">
         <v>40</v>
       </c>
+      <c r="D4" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="E4">
+        <v>36.799999999999997</v>
+      </c>
       <c r="F4">
         <v>25</v>
       </c>
@@ -867,9 +770,9 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -877,6 +780,12 @@
       <c r="C5">
         <v>91</v>
       </c>
+      <c r="D5" s="3">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="E5">
+        <v>37.1</v>
+      </c>
       <c r="F5">
         <v>46</v>
       </c>
@@ -884,9 +793,9 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -894,6 +803,12 @@
       <c r="C6">
         <v>40</v>
       </c>
+      <c r="D6" s="3">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="E6">
+        <v>16.2</v>
+      </c>
       <c r="F6">
         <v>25</v>
       </c>
@@ -901,9 +816,9 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>13</v>
@@ -911,6 +826,12 @@
       <c r="C7">
         <v>91</v>
       </c>
+      <c r="D7" s="3">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="E7">
+        <v>10.6</v>
+      </c>
       <c r="F7">
         <v>46</v>
       </c>
@@ -918,9 +839,9 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>13</v>
@@ -928,6 +849,12 @@
       <c r="C8">
         <v>40</v>
       </c>
+      <c r="D8" s="3">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="E8">
+        <v>261.5</v>
+      </c>
       <c r="F8">
         <v>25</v>
       </c>
@@ -935,9 +862,9 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>15</v>
@@ -945,6 +872,12 @@
       <c r="C9">
         <v>91</v>
       </c>
+      <c r="D9" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="E9">
+        <v>64</v>
+      </c>
       <c r="F9">
         <v>46</v>
       </c>
@@ -952,9 +885,9 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>15</v>
@@ -962,6 +895,12 @@
       <c r="C10">
         <v>100</v>
       </c>
+      <c r="D10" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="E10">
+        <v>36.799999999999997</v>
+      </c>
       <c r="F10">
         <v>62</v>
       </c>
@@ -969,9 +908,9 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>18</v>
@@ -979,6 +918,12 @@
       <c r="C11">
         <v>91</v>
       </c>
+      <c r="D11" s="3">
+        <v>1.071</v>
+      </c>
+      <c r="E11">
+        <v>37.1</v>
+      </c>
       <c r="F11">
         <v>46</v>
       </c>
@@ -986,9 +931,9 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B12">
         <v>18</v>
@@ -996,16 +941,18 @@
       <c r="C12">
         <v>100</v>
       </c>
+      <c r="D12" s="3">
+        <v>1.071</v>
+      </c>
+      <c r="E12">
+        <v>16.2</v>
+      </c>
       <c r="F12">
         <v>62</v>
       </c>
       <c r="G12">
         <v>-62</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1014,39 +961,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556FA6D7-E8B1-45CC-999B-591D2B33D9B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36A4758-68E6-45D1-BFF0-BFC45E90C5FA}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -1067,21 +999,21 @@
         <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="M1" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>96</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1098,13 +1030,31 @@
       <c r="F2">
         <v>13.2</v>
       </c>
+      <c r="G2" s="3">
+        <v>20.799792</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="M2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>98</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1121,13 +1071,31 @@
       <c r="F3">
         <v>13.2</v>
       </c>
+      <c r="G3" s="3">
+        <v>55.599443999999998</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>97</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -1144,13 +1112,31 @@
       <c r="F4">
         <v>13.2</v>
       </c>
+      <c r="G4" s="3">
+        <v>20.799792</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="M4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>100</v>
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -1167,13 +1153,31 @@
       <c r="F5">
         <v>13.2</v>
       </c>
+      <c r="G5" s="3">
+        <v>10.999890000000001</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="M5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>99</v>
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6">
         <v>15</v>
@@ -1190,13 +1194,31 @@
       <c r="F6">
         <v>13.2</v>
       </c>
+      <c r="G6" s="3">
+        <v>25.599744000000001</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="M6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>101</v>
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7">
         <v>18</v>
@@ -1213,13 +1235,31 @@
       <c r="F7">
         <v>13.2</v>
       </c>
+      <c r="G7" s="3">
+        <v>13.99986</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="M7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>102</v>
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1236,13 +1276,31 @@
       <c r="F8">
         <v>13.8</v>
       </c>
+      <c r="G8" s="3">
+        <v>39.599603999999999</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="M8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>103</v>
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -1259,13 +1317,31 @@
       <c r="F9">
         <v>13.8</v>
       </c>
+      <c r="G9" s="3">
+        <v>20.799792</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="M9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>104</v>
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10">
         <v>19</v>
@@ -1282,13 +1358,31 @@
       <c r="F10">
         <v>13.8</v>
       </c>
+      <c r="G10" s="3">
+        <v>55.599443999999998</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="M10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>105</v>
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -1305,13 +1399,31 @@
       <c r="F11">
         <v>13.8</v>
       </c>
+      <c r="G11" s="3">
+        <v>20.799792</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="M11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>106</v>
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12">
         <v>14</v>
@@ -1328,13 +1440,31 @@
       <c r="F12">
         <v>13.8</v>
       </c>
+      <c r="G12" s="3">
+        <v>10.999890000000001</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="M12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>107</v>
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13">
         <v>17</v>
@@ -1351,13 +1481,31 @@
       <c r="F13">
         <v>13.8</v>
       </c>
+      <c r="G13" s="3">
+        <v>25.599744000000001</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="M13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>108</v>
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1374,13 +1522,31 @@
       <c r="F14">
         <v>4.16</v>
       </c>
+      <c r="G14" s="3">
+        <v>13.99986</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="M14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>109</v>
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -1397,13 +1563,31 @@
       <c r="F15">
         <v>4.16</v>
       </c>
+      <c r="G15" s="3">
+        <v>39.599603999999999</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="M15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>110</v>
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16">
         <v>19</v>
@@ -1420,13 +1604,31 @@
       <c r="F16">
         <v>4.16</v>
       </c>
+      <c r="G16" s="3">
+        <v>20.799792</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="M16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>111</v>
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -1443,13 +1645,31 @@
       <c r="F17">
         <v>4.16</v>
       </c>
+      <c r="G17" s="3">
+        <v>55.599443999999998</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="M17" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>112</v>
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -1466,13 +1686,31 @@
       <c r="F18">
         <v>4.16</v>
       </c>
+      <c r="G18" s="3">
+        <v>20.799792</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="M18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>113</v>
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19">
         <v>14</v>
@@ -1489,13 +1727,31 @@
       <c r="F19">
         <v>4.16</v>
       </c>
+      <c r="G19" s="3">
+        <v>10.999890000000001</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="M19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>114</v>
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -1512,13 +1768,31 @@
       <c r="F20">
         <v>13.2</v>
       </c>
+      <c r="G20" s="3">
+        <v>25.599744000000001</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="M20" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>115</v>
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21">
         <v>15</v>
@@ -1534,6 +1808,24 @@
       </c>
       <c r="F21">
         <v>13.2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>13.99986</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="M21" t="b">
         <v>1</v>
@@ -1550,7 +1842,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1584,24 +1876,24 @@
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="I1" t="s">
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1609,6 +1901,21 @@
       <c r="C2">
         <v>15</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>7.5750000000000001E-3</v>
+      </c>
+      <c r="F2">
+        <v>3.168E-2</v>
+      </c>
+      <c r="G2">
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="H2">
+        <v>99999</v>
+      </c>
       <c r="I2">
         <v>1</v>
       </c>
@@ -1618,7 +1925,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1626,6 +1933,21 @@
       <c r="C3">
         <v>3</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2.5683999999999998E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4.1305000000000001E-2</v>
+      </c>
+      <c r="G3">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="H3">
+        <v>99999</v>
+      </c>
       <c r="I3">
         <v>1</v>
       </c>
@@ -1635,7 +1957,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1643,6 +1965,21 @@
       <c r="C4">
         <v>11</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1.3327E-2</v>
+      </c>
+      <c r="F4">
+        <v>5.8325000000000002E-2</v>
+      </c>
+      <c r="G4">
+        <v>4.1E-5</v>
+      </c>
+      <c r="H4">
+        <v>99999</v>
+      </c>
       <c r="I4">
         <v>1</v>
       </c>
@@ -1652,7 +1989,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -1660,6 +1997,21 @@
       <c r="C5">
         <v>13</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3.8428999999999998E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8.7106000000000003E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.4E-5</v>
+      </c>
+      <c r="H5">
+        <v>99999</v>
+      </c>
       <c r="I5">
         <v>1</v>
       </c>
@@ -1669,13 +2021,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>13</v>
       </c>
       <c r="C6">
         <v>18</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.461119</v>
+      </c>
+      <c r="F6">
+        <v>0.104521</v>
+      </c>
+      <c r="G6">
+        <v>1.7E-5</v>
+      </c>
+      <c r="H6">
+        <v>99999</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1696,7 +2063,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1718,275 +2085,275 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>54</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>13.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>55</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>56</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>13.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>57</v>
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>13.8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>58</v>
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>59</v>
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>60</v>
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>13.8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>61</v>
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>13.8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>62</v>
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>13.8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>63</v>
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>13.8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>64</v>
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>13.2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>65</v>
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>13.8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>66</v>
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>13.2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>67</v>
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>68</v>
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>13.2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>69</v>
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>4.16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>70</v>
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>71</v>
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>13.2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>72</v>
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>73</v>
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>4.16</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>74</v>
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>4.16</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>75</v>
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>4.16</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>76</v>
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>4.16</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>77</v>
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>4.16</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>78</v>
+      <c r="A26">
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>4.16</v>
@@ -2000,10 +2367,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B96019E-0F99-452A-B8D9-2F2EDA4B2CF4}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2020,7 +2387,7 @@
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2031,30 +2398,30 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -2083,10 +2450,14 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <f ca="1">0.15*K2*1000/0.736</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -2116,9 +2487,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -2148,9 +2519,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -2180,9 +2551,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>23</v>
@@ -2212,9 +2583,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -2244,9 +2615,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -2276,9 +2647,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>12</v>
@@ -2308,9 +2679,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -2340,9 +2711,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -2372,9 +2743,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>16</v>
@@ -2404,9 +2775,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>17</v>
@@ -2436,9 +2807,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -2477,16 +2848,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66432836-CD81-49D5-9E01-E3EBF07DFE3B}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
@@ -2497,36 +2868,499 @@
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
+      <c r="K1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>90</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>28.15</v>
+      </c>
+      <c r="G2">
+        <v>0.9</v>
+      </c>
+      <c r="H2">
+        <v>0.85</v>
+      </c>
+      <c r="I2">
+        <v>0.2</v>
+      </c>
+      <c r="J2">
+        <v>168.9</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>28.15</v>
+      </c>
+      <c r="G3">
+        <v>0.9</v>
+      </c>
+      <c r="H3">
+        <v>0.85</v>
+      </c>
+      <c r="I3">
+        <v>0.2</v>
+      </c>
+      <c r="J3">
+        <v>168.9</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>28.15</v>
+      </c>
+      <c r="G4">
+        <v>0.9</v>
+      </c>
+      <c r="H4">
+        <v>0.85</v>
+      </c>
+      <c r="I4">
+        <v>0.2</v>
+      </c>
+      <c r="J4">
+        <v>168.9</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>28.15</v>
+      </c>
+      <c r="G5">
+        <v>0.9</v>
+      </c>
+      <c r="H5">
+        <v>0.85</v>
+      </c>
+      <c r="I5">
+        <v>0.2</v>
+      </c>
+      <c r="J5">
+        <v>168.9</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>110</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>28.15</v>
+      </c>
+      <c r="G6">
+        <v>0.9</v>
+      </c>
+      <c r="H6">
+        <v>0.85</v>
+      </c>
+      <c r="I6">
+        <v>0.2</v>
+      </c>
+      <c r="J6">
+        <v>168.9</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>28.15</v>
+      </c>
+      <c r="G7">
+        <v>0.9</v>
+      </c>
+      <c r="H7">
+        <v>0.85</v>
+      </c>
+      <c r="I7">
+        <v>0.2</v>
+      </c>
+      <c r="J7">
+        <v>168.9</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>28.15</v>
+      </c>
+      <c r="G8">
+        <v>0.9</v>
+      </c>
+      <c r="H8">
+        <v>0.85</v>
+      </c>
+      <c r="I8">
+        <v>0.2</v>
+      </c>
+      <c r="J8">
+        <v>168.9</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>28.15</v>
+      </c>
+      <c r="G9">
+        <v>0.9</v>
+      </c>
+      <c r="H9">
+        <v>0.85</v>
+      </c>
+      <c r="I9">
+        <v>0.2</v>
+      </c>
+      <c r="J9">
+        <v>168.9</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>28.15</v>
+      </c>
+      <c r="G10">
+        <v>0.9</v>
+      </c>
+      <c r="H10">
+        <v>0.85</v>
+      </c>
+      <c r="I10">
+        <v>0.2</v>
+      </c>
+      <c r="J10">
+        <v>168.9</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>28.15</v>
+      </c>
+      <c r="G11">
+        <v>0.9</v>
+      </c>
+      <c r="H11">
+        <v>0.85</v>
+      </c>
+      <c r="I11">
+        <v>0.2</v>
+      </c>
+      <c r="J11">
+        <v>168.9</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>28.15</v>
+      </c>
+      <c r="G12">
+        <v>0.9</v>
+      </c>
+      <c r="H12">
+        <v>0.85</v>
+      </c>
+      <c r="I12">
+        <v>0.2</v>
+      </c>
+      <c r="J12">
+        <v>168.9</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <v>110</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>28.15</v>
+      </c>
+      <c r="G13">
+        <v>0.9</v>
+      </c>
+      <c r="H13">
+        <v>0.85</v>
+      </c>
+      <c r="I13">
+        <v>0.2</v>
+      </c>
+      <c r="J13">
+        <v>168.9</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>28.15</v>
+      </c>
+      <c r="G14">
+        <v>0.9</v>
+      </c>
+      <c r="H14">
+        <v>0.85</v>
+      </c>
+      <c r="I14">
+        <v>0.2</v>
+      </c>
+      <c r="J14">
+        <v>168.9</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2551,16 +3385,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2573,8 +3407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFB0247-C4C2-4E30-81EA-B15BFA0B5E09}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2590,54 +3424,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="G1" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="H1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>83</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.0449999999999999</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" s="3">
+        <v>360.2</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-1</v>
+        <v>-10</v>
       </c>
     </row>
   </sheetData>
